--- a/biology/Histoire de la zoologie et de la botanique/Victor_Fontanier/Victor_Fontanier.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Victor_Fontanier/Victor_Fontanier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Victor Fontanier (Saint-Flour, 23 septembre 1796-Civita-Vecchia, 26 mai 1857) est un diplomate et naturaliste français. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait des études de pharmacie et entre en 1819 comme aide-naturaliste au Muséum national d'histoire naturelle à Paris. Envoyé en 1821 à Constantinople comme naturaliste attaché à l'ambassade de France, il part de Marseille le 10 octobre et à son arrivée commence de grandes explorations où la politique prend le pas sur la géographie et les sciences naturelles. 
 En 1826, il explore le nord de l'Anatolie durant cinq mois. Parti de Trébizonde, il rejoint Erzeroum par les montagnes du Lazistan mais à cause d’une épidémie de peste et les fortes tensions qui y règnent, doit revenir à Constantinople. Il suit alors le Karasu, passe par Sivas, Tokat, Amasia, Osmancık, Tosya, Bolu, Izmit et enfin Scutari avant de rejoindre la capitale. 
@@ -553,7 +567,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Voyage en Orient entrepris par ordre du gouvernement français de l'année 1821 à l'année 1829 et de 1830 à 1833, 3 vol, 1829-1834
 Voyage dans l'Inde et dans le Golfe Persique par l’Égypte et la Mer Rouge, 3 vol, 1844-1846
